--- a/data/pca/factorExposure/factorExposure_2016-01-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02016539137697739</v>
+        <v>-0.0197795251167579</v>
       </c>
       <c r="C2">
-        <v>-0.04618516043938223</v>
+        <v>0.03984929710593318</v>
       </c>
       <c r="D2">
-        <v>0.1018561091900397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1172639648189059</v>
+      </c>
+      <c r="E2">
+        <v>-0.08506101682884482</v>
+      </c>
+      <c r="F2">
+        <v>-0.006186011611933789</v>
+      </c>
+      <c r="G2">
+        <v>0.02103695520073604</v>
+      </c>
+      <c r="H2">
+        <v>0.1037002023043843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02187509108423689</v>
+        <v>-0.0132449970163386</v>
       </c>
       <c r="C3">
-        <v>-0.06515667949594324</v>
+        <v>0.03605483514234375</v>
       </c>
       <c r="D3">
-        <v>0.1612943703819526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08607250915120027</v>
+      </c>
+      <c r="E3">
+        <v>-0.09107277560962539</v>
+      </c>
+      <c r="F3">
+        <v>-0.02801485183801456</v>
+      </c>
+      <c r="G3">
+        <v>0.08166359577946035</v>
+      </c>
+      <c r="H3">
+        <v>0.05622125365467814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05199117831341744</v>
+        <v>-0.05676616248649816</v>
       </c>
       <c r="C4">
-        <v>-0.04895900927597294</v>
+        <v>0.06532232926449662</v>
       </c>
       <c r="D4">
-        <v>0.1259718186152745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.131310567963628</v>
+      </c>
+      <c r="E4">
+        <v>-0.05680549912809376</v>
+      </c>
+      <c r="F4">
+        <v>-0.0193372876409045</v>
+      </c>
+      <c r="G4">
+        <v>-0.01799971785925588</v>
+      </c>
+      <c r="H4">
+        <v>-0.04042104771990392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04426140607548039</v>
+        <v>-0.04146037839170465</v>
       </c>
       <c r="C6">
-        <v>-0.02387814824544971</v>
+        <v>0.02770377374426514</v>
       </c>
       <c r="D6">
-        <v>0.122064282740996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1226454502742221</v>
+      </c>
+      <c r="E6">
+        <v>-0.04236935803901084</v>
+      </c>
+      <c r="F6">
+        <v>-0.01647466976027468</v>
+      </c>
+      <c r="G6">
+        <v>0.008931212793225741</v>
+      </c>
+      <c r="H6">
+        <v>0.005386942713315438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02482070286943079</v>
+        <v>-0.01858463929651633</v>
       </c>
       <c r="C7">
-        <v>-0.01855100251996309</v>
+        <v>0.0316135005510038</v>
       </c>
       <c r="D7">
-        <v>0.09174714611311388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09245777614417308</v>
+      </c>
+      <c r="E7">
+        <v>-0.04494938566309487</v>
+      </c>
+      <c r="F7">
+        <v>-0.01237188347923133</v>
+      </c>
+      <c r="G7">
+        <v>-0.05422018371362409</v>
+      </c>
+      <c r="H7">
+        <v>0.08195818250196304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009541532734266321</v>
+        <v>-0.0101744512344781</v>
       </c>
       <c r="C8">
-        <v>-0.03569423563464746</v>
+        <v>0.03659371061712231</v>
       </c>
       <c r="D8">
-        <v>0.06429975247428422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07328692233922675</v>
+      </c>
+      <c r="E8">
+        <v>-0.04200849632971723</v>
+      </c>
+      <c r="F8">
+        <v>-0.0336058053946241</v>
+      </c>
+      <c r="G8">
+        <v>-0.005881589495231161</v>
+      </c>
+      <c r="H8">
+        <v>0.02768189068539968</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03904538974731678</v>
+        <v>-0.04213402644525783</v>
       </c>
       <c r="C9">
-        <v>-0.04163963865619871</v>
+        <v>0.05806301343327874</v>
       </c>
       <c r="D9">
-        <v>0.1074024200544076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.113427058866341</v>
+      </c>
+      <c r="E9">
+        <v>-0.04730366607872692</v>
+      </c>
+      <c r="F9">
+        <v>-0.001083297541655965</v>
+      </c>
+      <c r="G9">
+        <v>-0.02729970487413808</v>
+      </c>
+      <c r="H9">
+        <v>-0.00116361601585105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0888113733581891</v>
+        <v>-0.1236146386731157</v>
       </c>
       <c r="C10">
-        <v>0.1931229014885257</v>
+        <v>-0.1942888722003055</v>
       </c>
       <c r="D10">
-        <v>0.008526701900065811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002812478874316123</v>
+      </c>
+      <c r="E10">
+        <v>-0.05509496415433944</v>
+      </c>
+      <c r="F10">
+        <v>-0.01400338113931664</v>
+      </c>
+      <c r="G10">
+        <v>-0.02896835031192647</v>
+      </c>
+      <c r="H10">
+        <v>-0.02071551133358911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03542807072242997</v>
+        <v>-0.03012032649480664</v>
       </c>
       <c r="C11">
-        <v>-0.03978884185307682</v>
+        <v>0.04287828455928518</v>
       </c>
       <c r="D11">
-        <v>0.06187608813809446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06047428528514757</v>
+      </c>
+      <c r="E11">
+        <v>-0.008060387366931725</v>
+      </c>
+      <c r="F11">
+        <v>-0.003931643084530675</v>
+      </c>
+      <c r="G11">
+        <v>-0.02846162576213307</v>
+      </c>
+      <c r="H11">
+        <v>0.04652489808026396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04106611177074466</v>
+        <v>-0.03440959702406773</v>
       </c>
       <c r="C12">
-        <v>-0.03603774290129812</v>
+        <v>0.04211660877460559</v>
       </c>
       <c r="D12">
-        <v>0.05741232078969571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05662924792673617</v>
+      </c>
+      <c r="E12">
+        <v>-0.01904112857115643</v>
+      </c>
+      <c r="F12">
+        <v>0.001736232105843815</v>
+      </c>
+      <c r="G12">
+        <v>-0.02892655306261583</v>
+      </c>
+      <c r="H12">
+        <v>0.05271480654833565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01314758533970936</v>
+        <v>-0.02003477959267649</v>
       </c>
       <c r="C13">
-        <v>-0.03570783430280812</v>
+        <v>0.04042926510841426</v>
       </c>
       <c r="D13">
-        <v>0.1311533705216835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1418733236500966</v>
+      </c>
+      <c r="E13">
+        <v>-0.08077804587750957</v>
+      </c>
+      <c r="F13">
+        <v>-0.02228170680541148</v>
+      </c>
+      <c r="G13">
+        <v>-0.03734001476257146</v>
+      </c>
+      <c r="H13">
+        <v>0.07556585776790915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01331042610409789</v>
+        <v>-0.008233861752556543</v>
       </c>
       <c r="C14">
-        <v>-0.01668377798785177</v>
+        <v>0.02405615507564228</v>
       </c>
       <c r="D14">
-        <v>0.08384826163315831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08399338703281857</v>
+      </c>
+      <c r="E14">
+        <v>-0.04431714517230075</v>
+      </c>
+      <c r="F14">
+        <v>0.01364691742854974</v>
+      </c>
+      <c r="G14">
+        <v>-0.03625502110750351</v>
+      </c>
+      <c r="H14">
+        <v>0.07839168521589432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001468803334960564</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.007554475434670299</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02417628444736684</v>
+      </c>
+      <c r="E15">
+        <v>-0.005517740186127548</v>
+      </c>
+      <c r="F15">
+        <v>0.002699844298728838</v>
+      </c>
+      <c r="G15">
+        <v>0.001998918268633514</v>
+      </c>
+      <c r="H15">
+        <v>0.01350808943460415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03727480835663532</v>
+        <v>-0.03133014181002712</v>
       </c>
       <c r="C16">
-        <v>-0.04585058513568154</v>
+        <v>0.04535390785090633</v>
       </c>
       <c r="D16">
-        <v>0.06995953567867139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06302397064214377</v>
+      </c>
+      <c r="E16">
+        <v>-0.02118439120078224</v>
+      </c>
+      <c r="F16">
+        <v>0.01002086744788135</v>
+      </c>
+      <c r="G16">
+        <v>-0.02567168642217142</v>
+      </c>
+      <c r="H16">
+        <v>0.05213890168973766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01301362236651149</v>
+        <v>-0.0123794970618493</v>
       </c>
       <c r="C19">
-        <v>-0.03034062782769084</v>
+        <v>0.03073017856120513</v>
       </c>
       <c r="D19">
-        <v>0.1741096838711685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1333644492695712</v>
+      </c>
+      <c r="E19">
+        <v>-0.0725930846427055</v>
+      </c>
+      <c r="F19">
+        <v>0.02743442015745292</v>
+      </c>
+      <c r="G19">
+        <v>-0.002183512122091408</v>
+      </c>
+      <c r="H19">
+        <v>0.04825321557759727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02004584457006162</v>
+        <v>-0.01664864140923859</v>
       </c>
       <c r="C20">
-        <v>-0.03162898517399369</v>
+        <v>0.03607048757008457</v>
       </c>
       <c r="D20">
-        <v>0.09643743831455437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09372289626694116</v>
+      </c>
+      <c r="E20">
+        <v>-0.06385452876568376</v>
+      </c>
+      <c r="F20">
+        <v>0.005949198451131569</v>
+      </c>
+      <c r="G20">
+        <v>-0.02020684220033252</v>
+      </c>
+      <c r="H20">
+        <v>0.04250867366450402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01178747865376721</v>
+        <v>-0.01573330075098148</v>
       </c>
       <c r="C21">
-        <v>-0.02240444769675465</v>
+        <v>0.0372823715991658</v>
       </c>
       <c r="D21">
-        <v>0.1318218338820455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1338166337035396</v>
+      </c>
+      <c r="E21">
+        <v>-0.1013390689950648</v>
+      </c>
+      <c r="F21">
+        <v>0.01487612176619475</v>
+      </c>
+      <c r="G21">
+        <v>-0.07884823750948841</v>
+      </c>
+      <c r="H21">
+        <v>0.07518404092480591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001396523370012043</v>
+        <v>-0.005812935908953509</v>
       </c>
       <c r="C22">
-        <v>-0.01165709163799445</v>
+        <v>0.0361789784269274</v>
       </c>
       <c r="D22">
-        <v>0.05026940952363906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1155910054770934</v>
+      </c>
+      <c r="E22">
+        <v>-0.03205599883468844</v>
+      </c>
+      <c r="F22">
+        <v>-0.07586405946607253</v>
+      </c>
+      <c r="G22">
+        <v>0.05826437377084445</v>
+      </c>
+      <c r="H22">
+        <v>-0.008422713960629973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001349326831244418</v>
+        <v>-0.005913104650921129</v>
       </c>
       <c r="C23">
-        <v>-0.01147951352634751</v>
+        <v>0.03655151569372903</v>
       </c>
       <c r="D23">
-        <v>0.04995564094871782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1148823759980701</v>
+      </c>
+      <c r="E23">
+        <v>-0.03231644975445292</v>
+      </c>
+      <c r="F23">
+        <v>-0.07583286499871786</v>
+      </c>
+      <c r="G23">
+        <v>0.05755050269791825</v>
+      </c>
+      <c r="H23">
+        <v>-0.008879886138897949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03589178991810892</v>
+        <v>-0.03282175936494695</v>
       </c>
       <c r="C24">
-        <v>-0.04524007501977902</v>
+        <v>0.0528391779739801</v>
       </c>
       <c r="D24">
-        <v>0.06851185576023443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06652953223512288</v>
+      </c>
+      <c r="E24">
+        <v>-0.02674765981419283</v>
+      </c>
+      <c r="F24">
+        <v>0.007640347940381101</v>
+      </c>
+      <c r="G24">
+        <v>-0.04220677295346625</v>
+      </c>
+      <c r="H24">
+        <v>0.05771894575973899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04384110862720893</v>
+        <v>-0.03790845962543833</v>
       </c>
       <c r="C25">
-        <v>-0.04683293242350477</v>
+        <v>0.05143131621729477</v>
       </c>
       <c r="D25">
-        <v>0.06772303812228271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06120628517609326</v>
+      </c>
+      <c r="E25">
+        <v>-0.02371622039425162</v>
+      </c>
+      <c r="F25">
+        <v>-0.006171407648231203</v>
+      </c>
+      <c r="G25">
+        <v>-0.0374070542621815</v>
+      </c>
+      <c r="H25">
+        <v>0.0441077038502551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02288377375665817</v>
+        <v>-0.02103513597623934</v>
       </c>
       <c r="C26">
-        <v>-0.009426206492973181</v>
+        <v>0.01798547697865106</v>
       </c>
       <c r="D26">
-        <v>0.05933774629959718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06409548301330727</v>
+      </c>
+      <c r="E26">
+        <v>-0.03281738873333861</v>
+      </c>
+      <c r="F26">
+        <v>0.00461072240464133</v>
+      </c>
+      <c r="G26">
+        <v>-0.02083489650823514</v>
+      </c>
+      <c r="H26">
+        <v>0.0493074675335449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1210057700544908</v>
+        <v>-0.1731849585229556</v>
       </c>
       <c r="C28">
-        <v>0.2818869965671349</v>
+        <v>-0.2610898642499023</v>
       </c>
       <c r="D28">
-        <v>-0.02860069369181405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01266120026251336</v>
+      </c>
+      <c r="E28">
+        <v>-0.07493813389683998</v>
+      </c>
+      <c r="F28">
+        <v>-0.005998849190681497</v>
+      </c>
+      <c r="G28">
+        <v>-0.06791517112690275</v>
+      </c>
+      <c r="H28">
+        <v>-0.02201930649406097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006188681903109248</v>
+        <v>-0.007261613490486409</v>
       </c>
       <c r="C29">
-        <v>-0.01777695966951683</v>
+        <v>0.02244994343648201</v>
       </c>
       <c r="D29">
-        <v>0.06537407061547863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0769058268423209</v>
+      </c>
+      <c r="E29">
+        <v>-0.0475865809757562</v>
+      </c>
+      <c r="F29">
+        <v>-0.0006747263282838395</v>
+      </c>
+      <c r="G29">
+        <v>-0.04873546561737556</v>
+      </c>
+      <c r="H29">
+        <v>0.07251366032966532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04284057311462639</v>
+        <v>-0.04475260196304578</v>
       </c>
       <c r="C30">
-        <v>-0.03084994491813665</v>
+        <v>0.05628424248282832</v>
       </c>
       <c r="D30">
-        <v>0.1499939443803671</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1692845099400527</v>
+      </c>
+      <c r="E30">
+        <v>-0.03357833333943672</v>
+      </c>
+      <c r="F30">
+        <v>-0.0002185515198415341</v>
+      </c>
+      <c r="G30">
+        <v>0.01963352852313846</v>
+      </c>
+      <c r="H30">
+        <v>0.01647050078514744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06521196556735614</v>
+        <v>-0.05925904874066967</v>
       </c>
       <c r="C31">
-        <v>-0.04986052769766317</v>
+        <v>0.07095574469411631</v>
       </c>
       <c r="D31">
-        <v>0.06768041393993196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05328481674194248</v>
+      </c>
+      <c r="E31">
+        <v>-0.04872412200792693</v>
+      </c>
+      <c r="F31">
+        <v>-0.03943018938513958</v>
+      </c>
+      <c r="G31">
+        <v>-0.02863833498806715</v>
+      </c>
+      <c r="H31">
+        <v>0.02224776364940044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002568529661504997</v>
+        <v>-0.01156206144143345</v>
       </c>
       <c r="C32">
-        <v>-0.0005460625835848454</v>
+        <v>0.01886222800847799</v>
       </c>
       <c r="D32">
-        <v>0.07072190971531613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0917492905229035</v>
+      </c>
+      <c r="E32">
+        <v>-0.08988656608085446</v>
+      </c>
+      <c r="F32">
+        <v>0.002707622870362832</v>
+      </c>
+      <c r="G32">
+        <v>-0.07821517933703655</v>
+      </c>
+      <c r="H32">
+        <v>0.05629718257022242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02789703589038195</v>
+        <v>-0.02548988537883977</v>
       </c>
       <c r="C33">
-        <v>-0.03109898023850238</v>
+        <v>0.04546081832830338</v>
       </c>
       <c r="D33">
-        <v>0.1412666273245554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1339872382008317</v>
+      </c>
+      <c r="E33">
+        <v>-0.05838383181045002</v>
+      </c>
+      <c r="F33">
+        <v>-0.01582022004880313</v>
+      </c>
+      <c r="G33">
+        <v>-0.03117595025454339</v>
+      </c>
+      <c r="H33">
+        <v>0.05282346381828742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03538637167374654</v>
+        <v>-0.0312899296852331</v>
       </c>
       <c r="C34">
-        <v>-0.05768135355033867</v>
+        <v>0.05964600560570969</v>
       </c>
       <c r="D34">
-        <v>0.06593870643483812</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06026443946893348</v>
+      </c>
+      <c r="E34">
+        <v>-0.005081915181620413</v>
+      </c>
+      <c r="F34">
+        <v>0.00610863036356118</v>
+      </c>
+      <c r="G34">
+        <v>-0.04193186472413424</v>
+      </c>
+      <c r="H34">
+        <v>0.06184785460895615</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0004504816378077134</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001556077651868443</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.002482703703464019</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003547818382078443</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002742964738708053</v>
+      </c>
+      <c r="G35">
+        <v>-0.0009289871319394954</v>
+      </c>
+      <c r="H35">
+        <v>0.002372281879515307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0187095890147826</v>
+        <v>-0.01790315353887277</v>
       </c>
       <c r="C36">
-        <v>-0.004887029421864724</v>
+        <v>0.01555714604221829</v>
       </c>
       <c r="D36">
-        <v>0.07510392378714216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07523825012070999</v>
+      </c>
+      <c r="E36">
+        <v>-0.04411827862251965</v>
+      </c>
+      <c r="F36">
+        <v>0.003624139950874858</v>
+      </c>
+      <c r="G36">
+        <v>-0.03229406076760082</v>
+      </c>
+      <c r="H36">
+        <v>0.03937960035455868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02990637403831597</v>
+        <v>-0.0245720241804104</v>
       </c>
       <c r="C38">
-        <v>-0.02146632266132632</v>
+        <v>0.02413524265729454</v>
       </c>
       <c r="D38">
-        <v>0.05739657118246388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06021867952824846</v>
+      </c>
+      <c r="E38">
+        <v>-0.03923576922447528</v>
+      </c>
+      <c r="F38">
+        <v>0.00386965030471209</v>
+      </c>
+      <c r="G38">
+        <v>0.02339812538005609</v>
+      </c>
+      <c r="H38">
+        <v>0.03521277032996675</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04542214489177199</v>
+        <v>-0.0397488622310589</v>
       </c>
       <c r="C39">
-        <v>-0.05698062411030628</v>
+        <v>0.06417969383773306</v>
       </c>
       <c r="D39">
-        <v>0.08917066104637242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1005650526747546</v>
+      </c>
+      <c r="E39">
+        <v>-0.0236118293169406</v>
+      </c>
+      <c r="F39">
+        <v>0.02347427314822163</v>
+      </c>
+      <c r="G39">
+        <v>-0.03013962164325945</v>
+      </c>
+      <c r="H39">
+        <v>0.07648670126950564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01731843874875997</v>
+        <v>-0.01649100940746221</v>
       </c>
       <c r="C40">
-        <v>-0.04687598986222077</v>
+        <v>0.0401602837051203</v>
       </c>
       <c r="D40">
-        <v>0.08157369889393365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09485921300180465</v>
+      </c>
+      <c r="E40">
+        <v>-0.0861678312316522</v>
+      </c>
+      <c r="F40">
+        <v>-0.04814887081336488</v>
+      </c>
+      <c r="G40">
+        <v>-0.02357226132998317</v>
+      </c>
+      <c r="H40">
+        <v>0.1378953094189676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02438173727005823</v>
+        <v>-0.02262832279000967</v>
       </c>
       <c r="C41">
-        <v>0.002973757834377899</v>
+        <v>0.008912228212373339</v>
       </c>
       <c r="D41">
-        <v>0.08106231153053625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06041266963794491</v>
+      </c>
+      <c r="E41">
+        <v>-0.05921435915573079</v>
+      </c>
+      <c r="F41">
+        <v>0.003717311213146262</v>
+      </c>
+      <c r="G41">
+        <v>-0.01677192760019656</v>
+      </c>
+      <c r="H41">
+        <v>0.03743785328856759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03580908297543962</v>
+        <v>-0.02645733766006372</v>
       </c>
       <c r="C43">
-        <v>-0.0110271779428878</v>
+        <v>0.02086625733943828</v>
       </c>
       <c r="D43">
-        <v>0.1219845659995209</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.09276674013073849</v>
+      </c>
+      <c r="E43">
+        <v>-0.04757373272747797</v>
+      </c>
+      <c r="F43">
+        <v>-0.003467597753142242</v>
+      </c>
+      <c r="G43">
+        <v>-0.02240348321416749</v>
+      </c>
+      <c r="H43">
+        <v>0.05383057048439729</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01443966961552181</v>
+        <v>-0.0183768572040817</v>
       </c>
       <c r="C44">
-        <v>-0.04630195021946119</v>
+        <v>0.04290180642244954</v>
       </c>
       <c r="D44">
-        <v>0.0860805291679977</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09452934324742099</v>
+      </c>
+      <c r="E44">
+        <v>-0.08169454245467594</v>
+      </c>
+      <c r="F44">
+        <v>0.005518569645508762</v>
+      </c>
+      <c r="G44">
+        <v>-0.03315849998002961</v>
+      </c>
+      <c r="H44">
+        <v>0.05518204961921112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01973577882388821</v>
+        <v>-0.01637764382123159</v>
       </c>
       <c r="C46">
-        <v>-0.01424764699412435</v>
+        <v>0.0288598008452137</v>
       </c>
       <c r="D46">
-        <v>0.07124523559801028</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08347606508768075</v>
+      </c>
+      <c r="E46">
+        <v>-0.05094412667880927</v>
+      </c>
+      <c r="F46">
+        <v>0.02085579410219777</v>
+      </c>
+      <c r="G46">
+        <v>-0.056061223184164</v>
+      </c>
+      <c r="H46">
+        <v>0.07425450427782419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09406732734433743</v>
+        <v>-0.0901784138924267</v>
       </c>
       <c r="C47">
-        <v>-0.06589432288162479</v>
+        <v>0.08798599199780169</v>
       </c>
       <c r="D47">
-        <v>0.03592718777959835</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03041705839969643</v>
+      </c>
+      <c r="E47">
+        <v>-0.03817758108203841</v>
+      </c>
+      <c r="F47">
+        <v>-0.02439631971769042</v>
+      </c>
+      <c r="G47">
+        <v>-0.05533200326754539</v>
+      </c>
+      <c r="H47">
+        <v>-0.01306036810012067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02194974070430469</v>
+        <v>-0.02004268300253646</v>
       </c>
       <c r="C48">
-        <v>-0.006277523873368011</v>
+        <v>0.01889141592378136</v>
       </c>
       <c r="D48">
-        <v>0.07879569816080409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07853278548384104</v>
+      </c>
+      <c r="E48">
+        <v>-0.05857624504004284</v>
+      </c>
+      <c r="F48">
+        <v>0.0172381750986237</v>
+      </c>
+      <c r="G48">
+        <v>-0.0319879994230449</v>
+      </c>
+      <c r="H48">
+        <v>0.0410107754707787</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07661476060328858</v>
+        <v>-0.06521426425234829</v>
       </c>
       <c r="C50">
-        <v>-0.0676175749057146</v>
+        <v>0.07041103572614862</v>
       </c>
       <c r="D50">
-        <v>0.06467079231313431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05649347294054705</v>
+      </c>
+      <c r="E50">
+        <v>-0.05015910091124883</v>
+      </c>
+      <c r="F50">
+        <v>-0.04183449018052023</v>
+      </c>
+      <c r="G50">
+        <v>-0.007178639866266307</v>
+      </c>
+      <c r="H50">
+        <v>0.03122044438096201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01159500951026565</v>
+        <v>-0.0100540949920636</v>
       </c>
       <c r="C51">
-        <v>-0.02652572640935104</v>
+        <v>0.02086449835505231</v>
       </c>
       <c r="D51">
-        <v>0.09395126499903324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09289688561402186</v>
+      </c>
+      <c r="E51">
+        <v>-0.03772012517660273</v>
+      </c>
+      <c r="F51">
+        <v>0.005671438873196315</v>
+      </c>
+      <c r="G51">
+        <v>-0.01583287561278349</v>
+      </c>
+      <c r="H51">
+        <v>0.07289343543718341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.07848248599310584</v>
+        <v>-0.09169341734338825</v>
       </c>
       <c r="C53">
-        <v>-0.08069951022650612</v>
+        <v>0.09551546004588586</v>
       </c>
       <c r="D53">
-        <v>0.02118222806401443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-8.015470033866221e-06</v>
+      </c>
+      <c r="E53">
+        <v>-0.0981976255670715</v>
+      </c>
+      <c r="F53">
+        <v>-0.02651053170108884</v>
+      </c>
+      <c r="G53">
+        <v>-0.079479268395833</v>
+      </c>
+      <c r="H53">
+        <v>-0.05718198212998631</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03476329389231563</v>
+        <v>-0.02796906438459843</v>
       </c>
       <c r="C54">
-        <v>-0.02516180709080225</v>
+        <v>0.03373748989013418</v>
       </c>
       <c r="D54">
-        <v>0.08525827191717142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08660399722900225</v>
+      </c>
+      <c r="E54">
+        <v>-0.05255806307823543</v>
+      </c>
+      <c r="F54">
+        <v>0.02110947306450928</v>
+      </c>
+      <c r="G54">
+        <v>-0.0360469163253929</v>
+      </c>
+      <c r="H54">
+        <v>0.09776354150558587</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08570723850159885</v>
+        <v>-0.08847042424985076</v>
       </c>
       <c r="C55">
-        <v>-0.06103627069782968</v>
+        <v>0.07789000490510177</v>
       </c>
       <c r="D55">
-        <v>0.002001988670698015</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01561740370483409</v>
+      </c>
+      <c r="E55">
+        <v>-0.05866697909557293</v>
+      </c>
+      <c r="F55">
+        <v>-0.03137117554948878</v>
+      </c>
+      <c r="G55">
+        <v>-0.03114111333159011</v>
+      </c>
+      <c r="H55">
+        <v>-0.03876634237559995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1383118394591535</v>
+        <v>-0.1407281554065413</v>
       </c>
       <c r="C56">
-        <v>-0.09453226700622915</v>
+        <v>0.1187927930178802</v>
       </c>
       <c r="D56">
-        <v>0.009477644096816631</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01578458785047888</v>
+      </c>
+      <c r="E56">
+        <v>-0.05495954628514408</v>
+      </c>
+      <c r="F56">
+        <v>-0.01815522440280796</v>
+      </c>
+      <c r="G56">
+        <v>-0.04402555705587892</v>
+      </c>
+      <c r="H56">
+        <v>-0.04238211800132137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.04203852558331819</v>
+        <v>-0.0408955180782364</v>
       </c>
       <c r="C58">
-        <v>0.01147482162933183</v>
+        <v>0.02386480970538784</v>
       </c>
       <c r="D58">
-        <v>0.4310756404433529</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3770262068126882</v>
+      </c>
+      <c r="E58">
+        <v>-0.2220128066967809</v>
+      </c>
+      <c r="F58">
+        <v>-0.1180705036552703</v>
+      </c>
+      <c r="G58">
+        <v>0.4951364723399125</v>
+      </c>
+      <c r="H58">
+        <v>-0.2581745055813935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1345231697363565</v>
+        <v>-0.1621974959007573</v>
       </c>
       <c r="C59">
-        <v>0.2088287720853924</v>
+        <v>-0.1819744675949655</v>
       </c>
       <c r="D59">
-        <v>0.01757624112207733</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04136965000487848</v>
+      </c>
+      <c r="E59">
+        <v>-0.01345040095033193</v>
+      </c>
+      <c r="F59">
+        <v>0.03283515334005501</v>
+      </c>
+      <c r="G59">
+        <v>0.01505919767541868</v>
+      </c>
+      <c r="H59">
+        <v>-0.01982425850540969</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2607617234689359</v>
+        <v>-0.2385677614908299</v>
       </c>
       <c r="C60">
-        <v>-0.0753214178627865</v>
+        <v>0.09343706442151034</v>
       </c>
       <c r="D60">
-        <v>0.09193597656674041</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1175568322527336</v>
+      </c>
+      <c r="E60">
+        <v>0.3606888041094651</v>
+      </c>
+      <c r="F60">
+        <v>-0.09744440466688421</v>
+      </c>
+      <c r="G60">
+        <v>0.01623597031335122</v>
+      </c>
+      <c r="H60">
+        <v>-0.06927736546372562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04848198983041491</v>
+        <v>-0.04285518160785667</v>
       </c>
       <c r="C61">
-        <v>-0.04947567621104489</v>
+        <v>0.056557225110478</v>
       </c>
       <c r="D61">
-        <v>0.09654956541776499</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09137110605422848</v>
+      </c>
+      <c r="E61">
+        <v>-0.02186223847686543</v>
+      </c>
+      <c r="F61">
+        <v>0.01177279797306699</v>
+      </c>
+      <c r="G61">
+        <v>-0.0434409735631625</v>
+      </c>
+      <c r="H61">
+        <v>0.06329370376835826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01548851143008227</v>
+        <v>-0.01588288543026161</v>
       </c>
       <c r="C63">
-        <v>-0.01512047546854632</v>
+        <v>0.02682207215993546</v>
       </c>
       <c r="D63">
-        <v>0.05599224758469664</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06821448501644084</v>
+      </c>
+      <c r="E63">
+        <v>-0.05328106816562941</v>
+      </c>
+      <c r="F63">
+        <v>-0.0233492149940935</v>
+      </c>
+      <c r="G63">
+        <v>-0.01528144044179642</v>
+      </c>
+      <c r="H63">
+        <v>0.03452715855383989</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05551310795051461</v>
+        <v>-0.05623745287920296</v>
       </c>
       <c r="C64">
-        <v>-0.05534148719213869</v>
+        <v>0.071104504761141</v>
       </c>
       <c r="D64">
-        <v>0.06788548310350881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0524007275824379</v>
+      </c>
+      <c r="E64">
+        <v>-0.04515887898729094</v>
+      </c>
+      <c r="F64">
+        <v>0.02257466412943797</v>
+      </c>
+      <c r="G64">
+        <v>-0.06796977652737915</v>
+      </c>
+      <c r="H64">
+        <v>0.0216174552090309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06174130185457889</v>
+        <v>-0.05411687364739554</v>
       </c>
       <c r="C65">
-        <v>-0.01145038355901528</v>
+        <v>0.02279741041847527</v>
       </c>
       <c r="D65">
-        <v>0.09977608921078587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1082012819250786</v>
+      </c>
+      <c r="E65">
+        <v>-0.009855585563103035</v>
+      </c>
+      <c r="F65">
+        <v>-0.02495578008808817</v>
+      </c>
+      <c r="G65">
+        <v>0.04888531106899479</v>
+      </c>
+      <c r="H65">
+        <v>-0.01893029445404453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0488193923988581</v>
+        <v>-0.04688875520114049</v>
       </c>
       <c r="C66">
-        <v>-0.05567696163444644</v>
+        <v>0.06989814598837432</v>
       </c>
       <c r="D66">
-        <v>0.112822519316776</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1245715868784705</v>
+      </c>
+      <c r="E66">
+        <v>-0.02450505752083039</v>
+      </c>
+      <c r="F66">
+        <v>0.01315768677206438</v>
+      </c>
+      <c r="G66">
+        <v>-0.01813052093839665</v>
+      </c>
+      <c r="H66">
+        <v>0.05698275293445161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04986887852605538</v>
+        <v>-0.04098537522629474</v>
       </c>
       <c r="C67">
-        <v>-0.02905834577895393</v>
+        <v>0.02946789309646574</v>
       </c>
       <c r="D67">
-        <v>0.03367930267694636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02683185030234643</v>
+      </c>
+      <c r="E67">
+        <v>-0.02244392511229995</v>
+      </c>
+      <c r="F67">
+        <v>-0.002597014318840252</v>
+      </c>
+      <c r="G67">
+        <v>0.0174181224027826</v>
+      </c>
+      <c r="H67">
+        <v>0.03469960008543247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1508201245798106</v>
+        <v>-0.1774934717826254</v>
       </c>
       <c r="C68">
-        <v>0.2831928055334078</v>
+        <v>-0.2300319754477627</v>
       </c>
       <c r="D68">
-        <v>-0.03476514227714413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.002782277506058972</v>
+      </c>
+      <c r="E68">
+        <v>-0.05284178448734769</v>
+      </c>
+      <c r="F68">
+        <v>-0.02732399369488073</v>
+      </c>
+      <c r="G68">
+        <v>0.006718168628884474</v>
+      </c>
+      <c r="H68">
+        <v>-0.002701559121860036</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08909978488363904</v>
+        <v>-0.08273795898388503</v>
       </c>
       <c r="C69">
-        <v>-0.07656958688568537</v>
+        <v>0.09701102673681927</v>
       </c>
       <c r="D69">
-        <v>0.04817634011631209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04519904207599366</v>
+      </c>
+      <c r="E69">
+        <v>-0.03370489817895217</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009709284501513237</v>
+      </c>
+      <c r="G69">
+        <v>-0.05202693632134931</v>
+      </c>
+      <c r="H69">
+        <v>0.00672298362586555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1277333729156532</v>
+        <v>-0.1661116116718953</v>
       </c>
       <c r="C71">
-        <v>0.2593224824770732</v>
+        <v>-0.2313950317491867</v>
       </c>
       <c r="D71">
-        <v>0.02574860586194565</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0365411245416835</v>
+      </c>
+      <c r="E71">
+        <v>-0.05304367466496567</v>
+      </c>
+      <c r="F71">
+        <v>-0.02034490707409524</v>
+      </c>
+      <c r="G71">
+        <v>-0.03887636295103286</v>
+      </c>
+      <c r="H71">
+        <v>0.005048461802746353</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09782787071591431</v>
+        <v>-0.102749551312246</v>
       </c>
       <c r="C72">
-        <v>-0.04641145397019873</v>
+        <v>0.06117533641855671</v>
       </c>
       <c r="D72">
-        <v>0.08155907854676996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09098855614758532</v>
+      </c>
+      <c r="E72">
+        <v>0.01229608747204837</v>
+      </c>
+      <c r="F72">
+        <v>-0.0306022717012692</v>
+      </c>
+      <c r="G72">
+        <v>-0.05027236890632731</v>
+      </c>
+      <c r="H72">
+        <v>0.01793609523909752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3137688017790092</v>
+        <v>-0.2762473187872277</v>
       </c>
       <c r="C73">
-        <v>-0.02469810116801676</v>
+        <v>0.06931105592736443</v>
       </c>
       <c r="D73">
-        <v>0.1822624765832469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2056508890065735</v>
+      </c>
+      <c r="E73">
+        <v>0.6671278620077352</v>
+      </c>
+      <c r="F73">
+        <v>-0.0946863308306813</v>
+      </c>
+      <c r="G73">
+        <v>0.0607107483185144</v>
+      </c>
+      <c r="H73">
+        <v>-0.0781301493906158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1072654693273622</v>
+        <v>-0.1073836724950301</v>
       </c>
       <c r="C74">
-        <v>-0.07156578832944763</v>
+        <v>0.08861683556902089</v>
       </c>
       <c r="D74">
-        <v>0.03677670078351739</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.004516696329459026</v>
+      </c>
+      <c r="E74">
+        <v>-0.07837536011799111</v>
+      </c>
+      <c r="F74">
+        <v>-0.04516341778194006</v>
+      </c>
+      <c r="G74">
+        <v>-0.03084287950820398</v>
+      </c>
+      <c r="H74">
+        <v>-0.07993399753010785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2498463756678738</v>
+        <v>-0.2463051623098682</v>
       </c>
       <c r="C75">
-        <v>-0.1162495248757429</v>
+        <v>0.1509217082756079</v>
       </c>
       <c r="D75">
-        <v>-0.0717513226411782</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1193195611896444</v>
+      </c>
+      <c r="E75">
+        <v>-0.07216667868948101</v>
+      </c>
+      <c r="F75">
+        <v>0.01784185921552899</v>
+      </c>
+      <c r="G75">
+        <v>-0.01735487228574698</v>
+      </c>
+      <c r="H75">
+        <v>-0.1623400357013531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1214416132734438</v>
+        <v>-0.1280764784544269</v>
       </c>
       <c r="C76">
-        <v>-0.08159812008020663</v>
+        <v>0.1043798075665114</v>
       </c>
       <c r="D76">
-        <v>0.0008997814105931885</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02700408432378921</v>
+      </c>
+      <c r="E76">
+        <v>-0.1171829488711311</v>
+      </c>
+      <c r="F76">
+        <v>-0.01306032333602392</v>
+      </c>
+      <c r="G76">
+        <v>-0.04826557702427007</v>
+      </c>
+      <c r="H76">
+        <v>-0.04509610706565191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08286681411264656</v>
+        <v>-0.06998795380095517</v>
       </c>
       <c r="C77">
-        <v>-0.02508423490373305</v>
+        <v>0.06984448277098229</v>
       </c>
       <c r="D77">
-        <v>0.1220802668895964</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1191347682013211</v>
+      </c>
+      <c r="E77">
+        <v>-0.1044235933641581</v>
+      </c>
+      <c r="F77">
+        <v>0.2905969031724848</v>
+      </c>
+      <c r="G77">
+        <v>0.1782998543519944</v>
+      </c>
+      <c r="H77">
+        <v>-0.08779277039523736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03668617531415754</v>
+        <v>-0.04229085279692905</v>
       </c>
       <c r="C78">
-        <v>-0.03911163948484321</v>
+        <v>0.06019846117341348</v>
       </c>
       <c r="D78">
-        <v>0.09026102408743705</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1190777628684072</v>
+      </c>
+      <c r="E78">
+        <v>-0.03314472130648983</v>
+      </c>
+      <c r="F78">
+        <v>-0.01802918999403288</v>
+      </c>
+      <c r="G78">
+        <v>-0.04006706220382303</v>
+      </c>
+      <c r="H78">
+        <v>0.0266982199461991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.002768857654619477</v>
+        <v>-0.04074065678548908</v>
       </c>
       <c r="C79">
-        <v>0.002398041895237952</v>
+        <v>0.07301386264165088</v>
       </c>
       <c r="D79">
-        <v>0.01614793251392279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05146440666102156</v>
+      </c>
+      <c r="E79">
+        <v>-0.1582142856379599</v>
+      </c>
+      <c r="F79">
+        <v>-0.07898681445790183</v>
+      </c>
+      <c r="G79">
+        <v>-0.3647472975425559</v>
+      </c>
+      <c r="H79">
+        <v>-0.6859415897390009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03377110708199238</v>
+        <v>-0.02771179072164355</v>
       </c>
       <c r="C80">
-        <v>-0.02916955184825635</v>
+        <v>0.04125005513122744</v>
       </c>
       <c r="D80">
-        <v>0.04066552931787318</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03694494238673984</v>
+      </c>
+      <c r="E80">
+        <v>-0.01301492560749264</v>
+      </c>
+      <c r="F80">
+        <v>0.03625158559637025</v>
+      </c>
+      <c r="G80">
+        <v>0.0256699660569478</v>
+      </c>
+      <c r="H80">
+        <v>0.04448845873291016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1467291543726757</v>
+        <v>-0.1355472711669803</v>
       </c>
       <c r="C81">
-        <v>-0.08050711842735685</v>
+        <v>0.1085537516502127</v>
       </c>
       <c r="D81">
-        <v>-0.03451416861384016</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07630399132214551</v>
+      </c>
+      <c r="E81">
+        <v>-0.1099468969688195</v>
+      </c>
+      <c r="F81">
+        <v>-0.002358060017143884</v>
+      </c>
+      <c r="G81">
+        <v>-0.0328109302416742</v>
+      </c>
+      <c r="H81">
+        <v>-0.06775923810029064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2791710074116059</v>
+        <v>-0.2507155629761337</v>
       </c>
       <c r="C82">
-        <v>-0.2196934834229866</v>
+        <v>0.22032484010755</v>
       </c>
       <c r="D82">
-        <v>-0.2307781553035954</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2341496634632847</v>
+      </c>
+      <c r="E82">
+        <v>-0.008814347778569312</v>
+      </c>
+      <c r="F82">
+        <v>-0.03640707409108866</v>
+      </c>
+      <c r="G82">
+        <v>-0.3849531122135076</v>
+      </c>
+      <c r="H82">
+        <v>0.3940554188255966</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04173954085904065</v>
+        <v>-0.02676853862929305</v>
       </c>
       <c r="C83">
-        <v>-0.03613193950526522</v>
+        <v>0.05080436675907694</v>
       </c>
       <c r="D83">
-        <v>0.07227765441623051</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05250425654185049</v>
+      </c>
+      <c r="E83">
+        <v>-0.005522806201452788</v>
+      </c>
+      <c r="F83">
+        <v>0.02259570031960059</v>
+      </c>
+      <c r="G83">
+        <v>-0.005140960143798023</v>
+      </c>
+      <c r="H83">
+        <v>0.03078745959136866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0004430084987686817</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.003186584389758157</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.006831251399296429</v>
+      </c>
+      <c r="E84">
+        <v>-0.0114582484771608</v>
+      </c>
+      <c r="F84">
+        <v>-0.004457602590253064</v>
+      </c>
+      <c r="G84">
+        <v>0.005055256545008597</v>
+      </c>
+      <c r="H84">
+        <v>0.007714260446942892</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1846633941498863</v>
+        <v>-0.1696288604054976</v>
       </c>
       <c r="C85">
-        <v>-0.09411694471288239</v>
+        <v>0.1200600213633336</v>
       </c>
       <c r="D85">
-        <v>-0.05299754357841276</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08283490231872245</v>
+      </c>
+      <c r="E85">
+        <v>-0.03851881565294014</v>
+      </c>
+      <c r="F85">
+        <v>-0.02845244661683582</v>
+      </c>
+      <c r="G85">
+        <v>-0.0642644583257556</v>
+      </c>
+      <c r="H85">
+        <v>-0.1461195731792516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01517773958083989</v>
+        <v>-0.02119477111433604</v>
       </c>
       <c r="C86">
-        <v>-0.02046146534527613</v>
+        <v>0.01610702618944964</v>
       </c>
       <c r="D86">
-        <v>0.1333715503917675</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1194343374586523</v>
+      </c>
+      <c r="E86">
+        <v>-0.02509172364091248</v>
+      </c>
+      <c r="F86">
+        <v>0.01041733235294228</v>
+      </c>
+      <c r="G86">
+        <v>-0.04666190616504321</v>
+      </c>
+      <c r="H86">
+        <v>0.06552992512153689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03157607660805024</v>
+        <v>-0.03481423260867179</v>
       </c>
       <c r="C87">
-        <v>-0.003379556498179433</v>
+        <v>0.02547641764200052</v>
       </c>
       <c r="D87">
-        <v>0.1101662294835061</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1295292992982799</v>
+      </c>
+      <c r="E87">
+        <v>-0.09336809333380311</v>
+      </c>
+      <c r="F87">
+        <v>0.02531764417142538</v>
+      </c>
+      <c r="G87">
+        <v>-0.0101795604291587</v>
+      </c>
+      <c r="H87">
+        <v>0.03028741237703746</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08916097607620171</v>
+        <v>-0.07849327088429325</v>
       </c>
       <c r="C88">
-        <v>-0.06250400345115066</v>
+        <v>0.06512847078373957</v>
       </c>
       <c r="D88">
-        <v>0.07339529443475228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04145207810134567</v>
+      </c>
+      <c r="E88">
+        <v>-0.04410914182069295</v>
+      </c>
+      <c r="F88">
+        <v>0.007368879625736448</v>
+      </c>
+      <c r="G88">
+        <v>-0.02340751802245333</v>
+      </c>
+      <c r="H88">
+        <v>0.02032937812358963</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1973341624224534</v>
+        <v>-0.2480019089229354</v>
       </c>
       <c r="C89">
-        <v>0.3642486488932239</v>
+        <v>-0.357258797857489</v>
       </c>
       <c r="D89">
-        <v>-0.03024545688165037</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001861795588118344</v>
+      </c>
+      <c r="E89">
+        <v>-0.07667757581595146</v>
+      </c>
+      <c r="F89">
+        <v>0.04484108177730422</v>
+      </c>
+      <c r="G89">
+        <v>-0.04490593647488364</v>
+      </c>
+      <c r="H89">
+        <v>0.03642948842734992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1897832058313931</v>
+        <v>-0.2234758497492238</v>
       </c>
       <c r="C90">
-        <v>0.3010032711984663</v>
+        <v>-0.2744324480318637</v>
       </c>
       <c r="D90">
-        <v>-0.01684079251136034</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01828657928945741</v>
+      </c>
+      <c r="E90">
+        <v>-0.05813758521872954</v>
+      </c>
+      <c r="F90">
+        <v>-0.002654669455879025</v>
+      </c>
+      <c r="G90">
+        <v>0.0148219258565402</v>
+      </c>
+      <c r="H90">
+        <v>0.06649819055806949</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1858079994005825</v>
+        <v>-0.1759611450860161</v>
       </c>
       <c r="C91">
-        <v>-0.1456779191617693</v>
+        <v>0.1594084275600841</v>
       </c>
       <c r="D91">
-        <v>-0.04503115662167771</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08519115273830147</v>
+      </c>
+      <c r="E91">
+        <v>-0.09387923267468332</v>
+      </c>
+      <c r="F91">
+        <v>-0.01958418265778066</v>
+      </c>
+      <c r="G91">
+        <v>-0.02597179794786458</v>
+      </c>
+      <c r="H91">
+        <v>-0.158199430649751</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1668283909025292</v>
+        <v>-0.2012655022806075</v>
       </c>
       <c r="C92">
-        <v>0.2920720724744062</v>
+        <v>-0.2876206909228906</v>
       </c>
       <c r="D92">
-        <v>0.04676979302069506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01840569855815357</v>
+      </c>
+      <c r="E92">
+        <v>-0.06954713782278978</v>
+      </c>
+      <c r="F92">
+        <v>0.0418248217235969</v>
+      </c>
+      <c r="G92">
+        <v>-0.009981604083155746</v>
+      </c>
+      <c r="H92">
+        <v>0.01775627469107904</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2135696046842788</v>
+        <v>-0.2448491842159913</v>
       </c>
       <c r="C93">
-        <v>0.3249198610241199</v>
+        <v>-0.2936993226909812</v>
       </c>
       <c r="D93">
-        <v>-0.008623004748610601</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.005914474624776044</v>
+      </c>
+      <c r="E93">
+        <v>-0.03267316547292038</v>
+      </c>
+      <c r="F93">
+        <v>-0.03099918125240347</v>
+      </c>
+      <c r="G93">
+        <v>-0.02687318878445374</v>
+      </c>
+      <c r="H93">
+        <v>0.01108432807496443</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3959212324371633</v>
+        <v>-0.3461555045317103</v>
       </c>
       <c r="C94">
-        <v>-0.2308635340624921</v>
+        <v>0.2339440480145521</v>
       </c>
       <c r="D94">
-        <v>-0.4585822493741721</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4460606411728114</v>
+      </c>
+      <c r="E94">
+        <v>-0.1136010522568057</v>
+      </c>
+      <c r="F94">
+        <v>0.03411286606420785</v>
+      </c>
+      <c r="G94">
+        <v>0.5676081790559625</v>
+      </c>
+      <c r="H94">
+        <v>0.1420284466840076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09928332579641866</v>
+        <v>-0.07630004685088287</v>
       </c>
       <c r="C95">
-        <v>-0.001228037199449901</v>
+        <v>0.04902679252339816</v>
       </c>
       <c r="D95">
-        <v>0.08699860605651222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.08365081749030152</v>
+      </c>
+      <c r="E95">
+        <v>0.1086428992041481</v>
+      </c>
+      <c r="F95">
+        <v>0.9071030120567924</v>
+      </c>
+      <c r="G95">
+        <v>-0.04950970895917305</v>
+      </c>
+      <c r="H95">
+        <v>-0.0914190005625341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1764545102727239</v>
+        <v>-0.17207642857242</v>
       </c>
       <c r="C98">
-        <v>-0.0253228654831748</v>
+        <v>0.05335090661706591</v>
       </c>
       <c r="D98">
-        <v>0.1136906478221571</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1348026543885287</v>
+      </c>
+      <c r="E98">
+        <v>0.2874000876946505</v>
+      </c>
+      <c r="F98">
+        <v>-0.08854273969816912</v>
+      </c>
+      <c r="G98">
+        <v>-0.01447501000971168</v>
+      </c>
+      <c r="H98">
+        <v>-0.02411943336656354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006047176580841095</v>
+        <v>-0.007414388977753854</v>
       </c>
       <c r="C101">
-        <v>-0.01707571996762268</v>
+        <v>0.02152170683966351</v>
       </c>
       <c r="D101">
-        <v>0.06518751416427071</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07686924089310854</v>
+      </c>
+      <c r="E101">
+        <v>-0.04857172643988943</v>
+      </c>
+      <c r="F101">
+        <v>0.000317429335390162</v>
+      </c>
+      <c r="G101">
+        <v>-0.04928291295192789</v>
+      </c>
+      <c r="H101">
+        <v>0.07226984942890596</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1291001544893473</v>
+        <v>-0.1179350942411154</v>
       </c>
       <c r="C102">
-        <v>-0.09272257866698617</v>
+        <v>0.1126974977577291</v>
       </c>
       <c r="D102">
-        <v>-0.03186211689225314</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05480302355154884</v>
+      </c>
+      <c r="E102">
+        <v>-0.02721898126235072</v>
+      </c>
+      <c r="F102">
+        <v>0.0185807326142963</v>
+      </c>
+      <c r="G102">
+        <v>-0.04558239144476222</v>
+      </c>
+      <c r="H102">
+        <v>-0.01268337926311051</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
